--- a/results/2004_reps_by_priority.xlsx
+++ b/results/2004_reps_by_priority.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06022ACA-FA41-D34E-8244-8CE07E8F2203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6FB3BD-1D36-534E-B9F6-2DB1D7FABD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{A0C3A1F2-F6C0-6945-A15C-7527EC267B0D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{50E89354-77F7-7148-83E5-39C2969AC7D4}" name="2004_reps_by_priority" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2004_reps_by_priority.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2004_reps_by_priority.csv" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="49">
   <si>
     <t>HOUSE SEAT</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>NM</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; D's got 49.19% of the vote and won 201 of 434 seats yielding a gap of +12 seats.</t>
   </si>
 </sst>
 </file>
@@ -243,11 +246,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,13 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0494BCEB-1CE0-8F43-9AC1-26275E2DD573}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,7 +589,7 @@
     <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,8 +608,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>436</v>
       </c>
@@ -625,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>437</v>
       </c>
@@ -645,7 +652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>438</v>
       </c>
@@ -665,7 +672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>439</v>
       </c>
@@ -685,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>440</v>
       </c>
@@ -705,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>441</v>
       </c>
@@ -725,7 +732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>442</v>
       </c>
@@ -745,7 +752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>443</v>
       </c>
@@ -765,7 +772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>444</v>
       </c>
@@ -785,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>445</v>
       </c>
@@ -805,7 +812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>446</v>
       </c>
@@ -825,7 +832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>447</v>
       </c>
@@ -845,7 +852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>448</v>
       </c>
@@ -865,7 +872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>449</v>
       </c>
@@ -885,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>450</v>
       </c>
